--- a/datas/Aşırı Hareket Senaryosu ve Kapsama Oranı (Extreme Move Multiplier and Extreme Move Covered Fraction).xlsx
+++ b/datas/Aşırı Hareket Senaryosu ve Kapsama Oranı (Extreme Move Multiplier and Extreme Move Covered Fraction).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,81 +434,40 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
+      <c r="A1" s="1" t="inlineStr"/>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 1</t>
+          <t>Kontratlar
+(Contracts)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 3</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 4</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 5</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 6</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 7</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 8</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 9</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 10</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 11</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 12</t>
-        </is>
-      </c>
+          <t>Volatilite Değişim Aralığı (%) 
+(Volatility Scan Range - VSR)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr"/>
+      <c r="E1" s="1" t="inlineStr"/>
+      <c r="F1" s="1" t="inlineStr"/>
+      <c r="G1" s="1" t="inlineStr"/>
+      <c r="H1" s="1" t="inlineStr"/>
+      <c r="I1" s="1" t="inlineStr"/>
+      <c r="J1" s="1" t="inlineStr"/>
+      <c r="K1" s="1" t="inlineStr"/>
+      <c r="L1" s="1" t="inlineStr"/>
+      <c r="M1" s="1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2) Aşırı Hareket Senaryosu ve Kapsama Oranı 
-(Extreme Move Multiplier and Extreme Move Covered Fraction)</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+          <t>AKBNK</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
+      </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
@@ -524,11 +483,11 @@
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1. Aşırı Hareket Senaryo Çarpanı (Extreme Move Multiplier)</t>
+          <t>ALARK</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
@@ -545,11 +504,11 @@
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2.Kapsama Oranı (%) (Extreme Move Covered Fraction)</t>
+          <t>ARCLK</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
@@ -566,11 +525,12 @@
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3) Volatilite Değişim Aralığı 
-(Volatility Scan Range-VSR)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>ASELS</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>31</v>
+      </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
@@ -586,15 +546,11 @@
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Kontratlar
-(Contracts)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Volatilite Değişim Aralığı (%) 
-(Volatility Scan Range - VSR)</t>
-        </is>
+          <t>BIMAS</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>32</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -611,11 +567,11 @@
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AKBNK</t>
+          <t>EKGYO</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
@@ -632,7 +588,7 @@
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ALARK</t>
+          <t>ENKAI</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -653,11 +609,11 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ARCLK</t>
+          <t>EREGL</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
@@ -674,11 +630,11 @@
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ASELS</t>
+          <t>FROTO</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
@@ -695,11 +651,11 @@
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMAS</t>
+          <t>GARAN</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
@@ -716,11 +672,11 @@
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
-          <t>EKGYO</t>
+          <t>HALKB</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
@@ -737,11 +693,11 @@
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ENKAI</t>
+          <t>ISCTR</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
@@ -758,11 +714,11 @@
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
-          <t>EREGL</t>
+          <t>KCHOL</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
@@ -779,11 +735,11 @@
       <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr">
         <is>
-          <t>FROTO</t>
+          <t>KRDMD</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
@@ -800,11 +756,11 @@
       <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr">
         <is>
-          <t>GARAN</t>
+          <t>PETKM</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
@@ -821,11 +777,11 @@
       <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr">
         <is>
-          <t>HALKB</t>
+          <t>PGSUS</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
@@ -842,11 +798,11 @@
       <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ISCTR</t>
+          <t>SAHOL</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
@@ -863,7 +819,7 @@
       <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr">
         <is>
-          <t>KCHOL</t>
+          <t>SISE</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -884,11 +840,11 @@
       <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr">
         <is>
-          <t>KRDMD</t>
+          <t>TAVHL</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
@@ -905,11 +861,11 @@
       <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PETKM</t>
+          <t>TCELL</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
@@ -926,11 +882,11 @@
       <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PGSUS</t>
+          <t>THYAO</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
@@ -947,7 +903,7 @@
       <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SAHOL</t>
+          <t>TOASO</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -968,11 +924,11 @@
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SISE</t>
+          <t>TTKOM</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
@@ -989,11 +945,11 @@
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TAVHL</t>
+          <t>TUPRS</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
@@ -1010,11 +966,11 @@
       <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TCELL</t>
+          <t>USDTRY</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
@@ -1031,11 +987,11 @@
       <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr">
         <is>
-          <t>THYAO</t>
+          <t>VAKBN</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
@@ -1052,11 +1008,11 @@
       <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TOASO</t>
+          <t>XU030</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
@@ -1073,11 +1029,11 @@
       <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TTKOM</t>
+          <t>YKBNK</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
@@ -1090,111 +1046,6 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr"/>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>TUPRS</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>26</v>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>USDTRY</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>35</v>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr"/>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>VAKBN</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>35</v>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>XU030</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>32</v>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr"/>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>YKBNK</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>26</v>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
